--- a/Codigo/Bases/datos_administrativos/Indicadores_de_Género/SALUD/Defunciones por grupos de causas maternas, 2018-2022.xlsx
+++ b/Codigo/Bases/datos_administrativos/Indicadores_de_Género/SALUD/Defunciones por grupos de causas maternas, 2018-2022.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin-Censo\Desktop\Backup\Vitales\Escritorio\Informacion Est Salud\2023\04 Solicitud de informacion\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://inegobgt-my.sharepoint.com/personal/unidadgenero_ine_gob_gt/Documents/Documentos/Github/CompendioGenero2023/Codigo/Bases/datos_administrativos/Indicadores_de_Género/SALUD/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCA7226C-F7CD-4C1F-ABAE-22A5180520E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="105" yWindow="30" windowWidth="28695" windowHeight="15570" xr2:uid="{BCB2CB04-ED41-4257-9F72-A29FE3B02022}"/>
+    <workbookView xWindow="14295" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{BCB2CB04-ED41-4257-9F72-A29FE3B02022}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -304,11 +304,8 @@
   <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -341,6 +338,9 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -660,7 +660,7 @@
   <dimension ref="A1:G13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:G1"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -670,220 +670,220 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="4"/>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
-      <c r="F1" s="4"/>
-      <c r="G1" s="4"/>
+      <c r="B1" s="17"/>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="17"/>
+      <c r="F1" s="17"/>
+      <c r="G1" s="17"/>
     </row>
     <row r="3" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="5" t="s">
+      <c r="A3" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="6">
+      <c r="C3" s="5">
         <v>2018</v>
       </c>
-      <c r="D3" s="6">
+      <c r="D3" s="5">
         <v>2019</v>
       </c>
-      <c r="E3" s="6">
+      <c r="E3" s="5">
         <v>2020</v>
       </c>
-      <c r="F3" s="6">
+      <c r="F3" s="5">
         <v>2021</v>
       </c>
-      <c r="G3" s="7" t="s">
+      <c r="G3" s="6" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="8" t="s">
+      <c r="A4" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="9" t="s">
+      <c r="B4" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="C4" s="10">
+      <c r="C4" s="9">
         <v>292</v>
       </c>
-      <c r="D4" s="10">
+      <c r="D4" s="9">
         <v>246</v>
       </c>
-      <c r="E4" s="10">
+      <c r="E4" s="9">
         <v>259</v>
       </c>
-      <c r="F4" s="10">
+      <c r="F4" s="9">
         <v>290</v>
       </c>
-      <c r="G4" s="10">
+      <c r="G4" s="9">
         <v>60</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="11" t="s">
+      <c r="A5" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="12" t="s">
+      <c r="B5" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="C5" s="13">
+      <c r="C5" s="12">
         <v>19</v>
       </c>
-      <c r="D5" s="13">
+      <c r="D5" s="12">
         <v>23</v>
       </c>
-      <c r="E5" s="13">
+      <c r="E5" s="12">
         <v>10</v>
       </c>
-      <c r="F5" s="13">
+      <c r="F5" s="12">
         <v>14</v>
       </c>
-      <c r="G5" s="13">
+      <c r="G5" s="12">
         <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="11" t="s">
+      <c r="A6" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="12" t="s">
+      <c r="B6" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="C6" s="13">
+      <c r="C6" s="12">
         <v>72</v>
       </c>
-      <c r="D6" s="13">
+      <c r="D6" s="12">
         <v>39</v>
       </c>
-      <c r="E6" s="13">
+      <c r="E6" s="12">
         <v>63</v>
       </c>
-      <c r="F6" s="13">
+      <c r="F6" s="12">
         <v>53</v>
       </c>
-      <c r="G6" s="13">
+      <c r="G6" s="12">
         <v>18</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="11" t="s">
+      <c r="A7" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="12" t="s">
+      <c r="B7" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="C7" s="13">
+      <c r="C7" s="12">
         <v>8</v>
       </c>
-      <c r="D7" s="13">
+      <c r="D7" s="12">
         <v>6</v>
       </c>
-      <c r="E7" s="13">
+      <c r="E7" s="12">
         <v>12</v>
       </c>
-      <c r="F7" s="13">
+      <c r="F7" s="12">
         <v>9</v>
       </c>
-      <c r="G7" s="13">
+      <c r="G7" s="12">
         <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="11" t="s">
+      <c r="A8" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="12" t="s">
+      <c r="B8" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="C8" s="13">
+      <c r="C8" s="12">
         <v>21</v>
       </c>
-      <c r="D8" s="13">
+      <c r="D8" s="12">
         <v>27</v>
       </c>
-      <c r="E8" s="13">
+      <c r="E8" s="12">
         <v>15</v>
       </c>
-      <c r="F8" s="13">
+      <c r="F8" s="12">
         <v>14</v>
       </c>
-      <c r="G8" s="13">
+      <c r="G8" s="12">
         <v>7</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="11" t="s">
+      <c r="A9" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="B9" s="12" t="s">
+      <c r="B9" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="C9" s="13">
+      <c r="C9" s="12">
         <v>117</v>
       </c>
-      <c r="D9" s="13">
+      <c r="D9" s="12">
         <v>103</v>
       </c>
-      <c r="E9" s="13">
+      <c r="E9" s="12">
         <v>101</v>
       </c>
-      <c r="F9" s="13">
+      <c r="F9" s="12">
         <v>83</v>
       </c>
-      <c r="G9" s="13">
+      <c r="G9" s="12">
         <v>19</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="11" t="s">
+      <c r="A10" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="B10" s="12" t="s">
+      <c r="B10" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="C10" s="13">
+      <c r="C10" s="12">
         <v>17</v>
       </c>
-      <c r="D10" s="13">
+      <c r="D10" s="12">
         <v>27</v>
       </c>
-      <c r="E10" s="13">
+      <c r="E10" s="12">
         <v>18</v>
       </c>
-      <c r="F10" s="13">
+      <c r="F10" s="12">
         <v>12</v>
       </c>
-      <c r="G10" s="13">
+      <c r="G10" s="12">
         <v>4</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="14" t="s">
+      <c r="A11" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="B11" s="15" t="s">
+      <c r="B11" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="C11" s="16">
+      <c r="C11" s="15">
         <v>38</v>
       </c>
-      <c r="D11" s="16">
+      <c r="D11" s="15">
         <v>21</v>
       </c>
-      <c r="E11" s="16">
+      <c r="E11" s="15">
         <v>40</v>
       </c>
-      <c r="F11" s="16">
+      <c r="F11" s="15">
         <v>105</v>
       </c>
-      <c r="G11" s="16">
+      <c r="G11" s="15">
         <v>8</v>
       </c>
     </row>
